--- a/data/trans_dic/P21D_6_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P21D_6_R-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.01421187724909622</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.02871131091151367</v>
+        <v>0.02871131091151368</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.02259185821334395</v>
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01450330650022573</v>
+        <v>0.01481696309885029</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01309284297063049</v>
+        <v>0.01200710817288559</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05247104999083152</v>
+        <v>0.05569417798858135</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05215465805721697</v>
+        <v>0.05575950122381749</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04203250750580599</v>
+        <v>0.04332191230091741</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.01037128447156605</v>
+        <v>0.01037128447156606</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.02046724319973735</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002633798233802448</v>
+        <v>0.003082847199164553</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0124630185332147</v>
+        <v>0.0116343132212687</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.009878950960508868</v>
+        <v>0.01010794039077437</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02486348577182865</v>
+        <v>0.02559195640894808</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03392653416010987</v>
+        <v>0.0321929463499531</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02488738007772051</v>
+        <v>0.02427154736150475</v>
       </c>
     </row>
     <row r="10">
@@ -706,11 +706,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01646285891557305</v>
+        <v>0.01611731953766196</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.006717648985229651</v>
+        <v>0.008094070286055534</v>
       </c>
     </row>
     <row r="13">
@@ -731,7 +731,7 @@
         <v>0.005447341273505553</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.00315386007692825</v>
+        <v>0.003153860076928249</v>
       </c>
     </row>
     <row r="14">
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001326109934763342</v>
+        <v>0.001320151661484596</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001200062166250456</v>
+        <v>0.001183503908798315</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.007051935834735566</v>
+        <v>0.005552891557472886</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01276882127966858</v>
+        <v>0.01286059640507476</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.007455376459122164</v>
+        <v>0.006982686328417075</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +786,7 @@
         <v>0.01204475332952261</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.008941339680763202</v>
+        <v>0.008941339680763204</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002421252534703052</v>
+        <v>0.002755009736517579</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.008154847631367375</v>
+        <v>0.008349738688579527</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006051959620845382</v>
+        <v>0.006565318412499593</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01165231881302225</v>
+        <v>0.01127910087775433</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01733429246866372</v>
+        <v>0.01712379062439342</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0125387684066205</v>
+        <v>0.01231692398005154</v>
       </c>
     </row>
     <row r="19">
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3903</v>
+        <v>3987</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6096</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="7">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10310</v>
+        <v>10943</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14034</v>
+        <v>15004</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>19569</v>
+        <v>20169</v>
       </c>
     </row>
     <row r="8">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1043</v>
+        <v>1221</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5974</v>
+        <v>5577</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8649</v>
+        <v>8849</v>
       </c>
     </row>
     <row r="11">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9849</v>
+        <v>10137</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16263</v>
+        <v>15432</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>21788</v>
+        <v>21249</v>
       </c>
     </row>
     <row r="12">
@@ -1121,11 +1121,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6717</v>
+        <v>6576</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5659</v>
+        <v>6819</v>
       </c>
     </row>
     <row r="16">
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1256</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="19">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3867</v>
+        <v>3045</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6367</v>
+        <v>6412</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7805</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="20">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3750</v>
+        <v>4267</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>13712</v>
+        <v>14040</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>19550</v>
+        <v>21208</v>
       </c>
     </row>
     <row r="23">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18049</v>
+        <v>17471</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>29147</v>
+        <v>28793</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>40505</v>
+        <v>39788</v>
       </c>
     </row>
     <row r="24">
